--- a/output/fit_clients/fit_round_207.xlsx
+++ b/output/fit_clients/fit_round_207.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1870874511.819137</v>
+        <v>1757307552.697353</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09548105335462882</v>
+        <v>0.0690066405436203</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0277894455779619</v>
+        <v>0.03746145238761688</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>935437234.1730669</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2515042268.71216</v>
+        <v>2484978571.603293</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1303647419592046</v>
+        <v>0.1531007305045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04821111274192438</v>
+        <v>0.04267122896612333</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1257521254.1601</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4538465950.454318</v>
+        <v>3269358749.055371</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12025821523817</v>
+        <v>0.1342024169777098</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02563678665056664</v>
+        <v>0.03646043359183446</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2269233027.528833</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3792621963.12765</v>
+        <v>3976670026.798589</v>
       </c>
       <c r="F5" t="n">
-        <v>0.106452485649122</v>
+        <v>0.08143321680194317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03657411879941525</v>
+        <v>0.04180663209865681</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>78</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1896310998.981089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2077471043.429768</v>
+        <v>2281707647.357626</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1064232897948101</v>
+        <v>0.127823821539457</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0375614473651391</v>
+        <v>0.04238698195011645</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>35</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1038735542.907931</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2587085647.78782</v>
+        <v>2218307498.200385</v>
       </c>
       <c r="F7" t="n">
-        <v>0.100955712096255</v>
+        <v>0.0917945568658437</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0496463578514682</v>
+        <v>0.03167091974827774</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1293542828.524881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2979674257.745698</v>
+        <v>2626106707.31608</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2028148589534209</v>
+        <v>0.2136540109452976</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02379874881749095</v>
+        <v>0.03059154242980087</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>66</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1489837184.292974</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1443049639.902217</v>
+        <v>2141146300.492204</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1926302059426126</v>
+        <v>0.1676845745395016</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03378940750089918</v>
+        <v>0.02772994467605518</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>721524923.8230023</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5396048749.458976</v>
+        <v>3877980102.419204</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1804516349893875</v>
+        <v>0.1914403338260222</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0489304494239679</v>
+        <v>0.03943445047916358</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>87</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2698024504.722639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4044655110.130398</v>
+        <v>3186927333.31896</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1754298131774464</v>
+        <v>0.1655549620088298</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04996732786579131</v>
+        <v>0.03114545437932715</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>85</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2022327570.844263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3297135913.01536</v>
+        <v>2240058264.240963</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1244774819939268</v>
+        <v>0.1716571593228761</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04370986387090721</v>
+        <v>0.04012544278687107</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>73</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1648568001.714969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5281459119.596721</v>
+        <v>4248778897.761485</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09959312450569931</v>
+        <v>0.09054912224848845</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02437469811305142</v>
+        <v>0.02078680924146296</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>70</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2640729549.62334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3445265772.005701</v>
+        <v>2351026775.539239</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1150931981909288</v>
+        <v>0.1276423603688064</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0419511012430138</v>
+        <v>0.02824597706904855</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1722632888.186348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1342980392.089076</v>
+        <v>1302429426.610224</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09555472971696012</v>
+        <v>0.0922776505149243</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03818244120452478</v>
+        <v>0.04830566737313529</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>671490245.9261308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2824697497.392357</v>
+        <v>1942114877.111392</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08032986368646405</v>
+        <v>0.0728523465441141</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04612064244207474</v>
+        <v>0.0453995342801269</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>32</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1412348750.480523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3828566778.957812</v>
+        <v>4305984362.255387</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1321148876262767</v>
+        <v>0.1331422274183029</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05240406690054446</v>
+        <v>0.04169725740042859</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>61</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1914283432.525643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2851856412.516336</v>
+        <v>2502779834.170277</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1769011454203796</v>
+        <v>0.1361420676119613</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02418776002301264</v>
+        <v>0.02398103987076667</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>68</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1425928247.202486</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>933070973.3636575</v>
+        <v>1111976930.969589</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1392489079060337</v>
+        <v>0.1610996924880735</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02643581520505225</v>
+        <v>0.01896378132178819</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>466535499.614857</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1913003547.97742</v>
+        <v>1699199296.221526</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1401185809326245</v>
+        <v>0.09912090200343766</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03163963626608643</v>
+        <v>0.02517704612485973</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>956501809.5622066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2446422536.462716</v>
+        <v>2428985667.979342</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09200701999176268</v>
+        <v>0.09000912365733027</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02874709937005714</v>
+        <v>0.04479275837216759</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1223211261.437483</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2955827686.634241</v>
+        <v>3522864231.07091</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09467257247498854</v>
+        <v>0.1291259130024099</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05292369330903843</v>
+        <v>0.0529650934431462</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>58</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1477913907.477913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1196844436.000724</v>
+        <v>1506367588.25896</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1154128683913683</v>
+        <v>0.1356420739246679</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03553177294024352</v>
+        <v>0.04329927822929428</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>598422255.0030556</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3333889021.626261</v>
+        <v>2518169892.26209</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1472592654963729</v>
+        <v>0.1094351015969482</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03721034859328241</v>
+        <v>0.02931760379777986</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>61</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1666944523.592061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1189568295.96405</v>
+        <v>1215828302.843537</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09699230081813094</v>
+        <v>0.1113484587688357</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02478072893583229</v>
+        <v>0.0300963014465831</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>594784168.3304745</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1056594312.53</v>
+        <v>924972354.228719</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1008888217124242</v>
+        <v>0.08290486402451767</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03901572982491805</v>
+        <v>0.03375610248817594</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>528297142.150035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3295245261.16931</v>
+        <v>3757635372.11864</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1248524427535853</v>
+        <v>0.1400524635809919</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02661677624617605</v>
+        <v>0.02320231507068315</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1647622675.702579</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3460195211.265798</v>
+        <v>3347324828.241416</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1175444500988714</v>
+        <v>0.1272154456612981</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04971876094251888</v>
+        <v>0.04892721316468314</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>67</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1730097656.80836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3918836201.534588</v>
+        <v>5536027847.623465</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1096507047017898</v>
+        <v>0.1501374947277571</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04312294488680676</v>
+        <v>0.04488120594472229</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>92</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1959418123.267371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2311378354.804404</v>
+        <v>2354250911.001634</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1282017909927972</v>
+        <v>0.1079221113830267</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03910924794486336</v>
+        <v>0.03289251382018968</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1155689250.30539</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1005778133.87785</v>
+        <v>1120135668.524671</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08088496238798554</v>
+        <v>0.07979926053385185</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05183867033394924</v>
+        <v>0.04187538728074917</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>502889064.1008886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1814024447.688611</v>
+        <v>1497833321.760014</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1162938747942687</v>
+        <v>0.1135965697459517</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02426326759680576</v>
+        <v>0.02686770536284274</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>907012357.1944727</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2160906781.374921</v>
+        <v>2740638650.88984</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1349443823959662</v>
+        <v>0.1937189289324323</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04445236389846038</v>
+        <v>0.04524908127552967</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>62</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1080453457.774611</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1044855373.154572</v>
+        <v>1085438197.839252</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08967612798959181</v>
+        <v>0.109654151288855</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01983256747867935</v>
+        <v>0.0245860238937072</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>522427717.0439668</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1048324107.130767</v>
+        <v>992486374.4945767</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0781425655263506</v>
+        <v>0.09968664891406781</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04088423691040823</v>
+        <v>0.04089473846736823</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>524162061.5408002</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2231497143.130097</v>
+        <v>2846151241.778699</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1591938535279749</v>
+        <v>0.1262567168963199</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01976684510361356</v>
+        <v>0.02685699517809076</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>53</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1115748615.041907</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2310719939.590044</v>
+        <v>2258635240.316111</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1026324304498035</v>
+        <v>0.09583332828266267</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03967277147940832</v>
+        <v>0.03216808878585031</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>55</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1155360039.807536</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1801041667.269061</v>
+        <v>1709680206.787643</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07488088446064921</v>
+        <v>0.0936758251151484</v>
       </c>
       <c r="G38" t="n">
-        <v>0.029274949763138</v>
+        <v>0.03220603180309276</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>900520840.3474337</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2073312447.778238</v>
+        <v>1900153843.857834</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1841704424566064</v>
+        <v>0.1502853371209803</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02194475630666894</v>
+        <v>0.02846210205416706</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1036656207.272066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1527283151.163382</v>
+        <v>1670169391.172344</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1097516971960239</v>
+        <v>0.1028383128489117</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05225030058590442</v>
+        <v>0.05986443210013356</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>763641534.9422425</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2837692344.599614</v>
+        <v>2202481916.954278</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1433867095885827</v>
+        <v>0.1074321059882734</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04725590907680577</v>
+        <v>0.03690263871028462</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>51</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1418846164.482695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3799745677.264411</v>
+        <v>3807257749.284636</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08956216780764786</v>
+        <v>0.08094644650585996</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03716356333648087</v>
+        <v>0.04564311887684823</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>68</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1899872854.120412</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2418652003.602272</v>
+        <v>3084144413.333929</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1432681790802418</v>
+        <v>0.1468240623530882</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02164119426758469</v>
+        <v>0.01923747860011731</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>70</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1209326058.606352</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2063040660.194561</v>
+        <v>2236192830.731968</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07262080141341776</v>
+        <v>0.07153395783414369</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03248238490912059</v>
+        <v>0.02332062664815297</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1031520448.993557</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2324816647.098754</v>
+        <v>2526830678.955487</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1634012883112484</v>
+        <v>0.1784272007094593</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0366739367752822</v>
+        <v>0.04151265601455056</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1162408347.121669</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5276766804.258921</v>
+        <v>3626107954.948609</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1672958577312399</v>
+        <v>0.1681004901974538</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04643805021643672</v>
+        <v>0.05166010629150408</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>74</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2638383444.732563</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3293469988.492302</v>
+        <v>5127486370.237512</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1872966253999474</v>
+        <v>0.1625746264100622</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03738938060136603</v>
+        <v>0.0413757089937153</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>56</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1646734953.316471</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4458046297.662766</v>
+        <v>3128163836.208097</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07647732047473475</v>
+        <v>0.08198797251619397</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03908128109412923</v>
+        <v>0.02747040700623259</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>71</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2229023156.549593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1602324722.437327</v>
+        <v>1620458869.11309</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1943708029296108</v>
+        <v>0.1500533075966037</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03504223827565564</v>
+        <v>0.03879449956548878</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>801162377.3086134</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3465146196.664748</v>
+        <v>3198028979.864336</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1747424963576244</v>
+        <v>0.1352717453727485</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04659906849407525</v>
+        <v>0.03920017944588868</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>71</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1732573125.054835</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1527766367.069419</v>
+        <v>952318687.2796413</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1308837048928845</v>
+        <v>0.169932410114933</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03885872351047303</v>
+        <v>0.04825621347279671</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>763883181.9491338</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3428463224.898885</v>
+        <v>3411604044.38402</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1204441225205709</v>
+        <v>0.1271574675321736</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04160500964085777</v>
+        <v>0.04048896756394362</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>86</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1714231702.549763</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2593675714.197483</v>
+        <v>2854936776.367874</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1415145733575808</v>
+        <v>0.1891748434688417</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03540548014768448</v>
+        <v>0.03460689669384863</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>59</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1296837917.595787</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4957492670.34394</v>
+        <v>3817651553.722199</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1430394851171455</v>
+        <v>0.1180416172557769</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05205683193623122</v>
+        <v>0.04029703899418526</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>68</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2478746474.427853</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4925848095.988997</v>
+        <v>3814189060.235607</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1755401510725822</v>
+        <v>0.1651398715609779</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02285505093612258</v>
+        <v>0.02683653617575779</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2462924063.732349</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1181300059.223466</v>
+        <v>1267240937.710641</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1085353621354129</v>
+        <v>0.1147914639633879</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04847428397601464</v>
+        <v>0.05559957362525596</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>590650119.0444292</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3570094710.400915</v>
+        <v>3865891401.961617</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1124855409841774</v>
+        <v>0.1556733199055968</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01752498793220703</v>
+        <v>0.02151081451886842</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>66</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1785047407.455982</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1158806543.915872</v>
+        <v>1357493519.848864</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1272990381077433</v>
+        <v>0.2010704161899961</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03815830175878089</v>
+        <v>0.03904488173064533</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>579403334.2082678</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5242754874.390824</v>
+        <v>3394195506.711329</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1137131146380504</v>
+        <v>0.08700062610960702</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03979564585033663</v>
+        <v>0.0345944093404108</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>57</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2621377353.163803</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3049354959.915616</v>
+        <v>3356803565.139046</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1930725733904267</v>
+        <v>0.1616577254891398</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02310291163619096</v>
+        <v>0.02463994927871021</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>64</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1524677555.466735</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2225523331.239153</v>
+        <v>3395583182.981718</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1112154810840121</v>
+        <v>0.1707962006022845</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02548816626581142</v>
+        <v>0.03070638069619396</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>73</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1112761719.10474</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1332473431.046443</v>
+        <v>1390624850.411302</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1269025075440866</v>
+        <v>0.1394488798933867</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03027249557315326</v>
+        <v>0.04124347114957656</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>666236673.4469042</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5469160292.700547</v>
+        <v>3581247276.344328</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1002206745307176</v>
+        <v>0.1076121713630467</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0326085657224733</v>
+        <v>0.03921706645639935</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>59</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2734580143.151636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3965178040.830459</v>
+        <v>4173589875.546786</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1251374904373111</v>
+        <v>0.1453376429846776</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02284778932992003</v>
+        <v>0.03316721470867436</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>64</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1982589053.802592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3672252761.991477</v>
+        <v>4781903407.037107</v>
       </c>
       <c r="F65" t="n">
-        <v>0.128743833117135</v>
+        <v>0.1739015794052765</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02262093499505439</v>
+        <v>0.02972631985198887</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>74</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1836126419.120527</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4001412055.875405</v>
+        <v>3827126805.235812</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1232356656584209</v>
+        <v>0.1123742958319744</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03890912933621269</v>
+        <v>0.04112981189144024</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>60</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2000706001.575357</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2637175319.613391</v>
+        <v>3313237820.850371</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07916499259978808</v>
+        <v>0.09679892247823406</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04943311497675944</v>
+        <v>0.03151928383415014</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>67</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1318587708.792361</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5277001814.045474</v>
+        <v>5368307485.21446</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1478457864311818</v>
+        <v>0.1152323892457545</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04750871465951546</v>
+        <v>0.04747288070321728</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>66</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2638500980.175435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2124914054.996614</v>
+        <v>1536297405.439585</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1212750884719471</v>
+        <v>0.1588489077621502</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04582149151681201</v>
+        <v>0.04500684712815295</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1062457048.562994</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3342808147.050731</v>
+        <v>3478637170.372271</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1018805294710774</v>
+        <v>0.07802355174711076</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04652854253343673</v>
+        <v>0.03385630094865236</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>59</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1671404072.769546</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5609638463.545385</v>
+        <v>4992228265.615265</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1522841821642871</v>
+        <v>0.1541212446744462</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0264469971956617</v>
+        <v>0.03128401439058652</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>75</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2804819382.950427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2256764283.655021</v>
+        <v>1893570857.891701</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06857983442707215</v>
+        <v>0.105063255863455</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04503607800571275</v>
+        <v>0.04890957409974792</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1128382046.737867</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3435750856.66639</v>
+        <v>3414714558.339319</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07563797300275896</v>
+        <v>0.09748269519723801</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04310345886894011</v>
+        <v>0.03213134137091519</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>79</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1717875384.398655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3287110978.684328</v>
+        <v>3909144509.758125</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1404832645032946</v>
+        <v>0.1196793439692612</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02801321360286978</v>
+        <v>0.03052508149890822</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>70</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1643555529.913476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2186303079.798405</v>
+        <v>2331083113.063061</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1503740549567332</v>
+        <v>0.1113418655649617</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02614066024332336</v>
+        <v>0.02350856809683709</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1093151486.552916</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4707694592.40649</v>
+        <v>4376819304.052006</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1248614114810816</v>
+        <v>0.1174000753742801</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03266527542525059</v>
+        <v>0.02175880820158506</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2353847310.602184</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1622823648.593728</v>
+        <v>1468818688.91068</v>
       </c>
       <c r="F77" t="n">
-        <v>0.172829286842636</v>
+        <v>0.1460372679770594</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02338809994385659</v>
+        <v>0.02459498872285661</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>811411830.0981992</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4224993771.600822</v>
+        <v>4211472565.916863</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1297012412578314</v>
+        <v>0.126561978457679</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03812536178735149</v>
+        <v>0.03971890767868561</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>72</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2112496835.419927</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1778007938.581784</v>
+        <v>1627104623.451975</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1119355368962868</v>
+        <v>0.1543703919107019</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03422394893749549</v>
+        <v>0.0386721814497509</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>889004052.0987403</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4944616742.237498</v>
+        <v>3588281501.529464</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09158261016350876</v>
+        <v>0.08592945824954061</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02799486449374765</v>
+        <v>0.03474079639218674</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>43</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2472308417.565055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4076997817.014959</v>
+        <v>3157438368.31349</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1160113846003347</v>
+        <v>0.08864965517632209</v>
       </c>
       <c r="G81" t="n">
-        <v>0.024158255138412</v>
+        <v>0.02524884279285273</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>46</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2038498874.567922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4185611744.287899</v>
+        <v>4581907692.129321</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1998553632696655</v>
+        <v>0.1874879984697348</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01916665218494609</v>
+        <v>0.02417043007850801</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2092805901.542291</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1501568890.236302</v>
+        <v>2358486957.291949</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09809796461827813</v>
+        <v>0.113085484098907</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03568813859412455</v>
+        <v>0.03411107260164185</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>750784368.3723348</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2368317845.52934</v>
+        <v>2156201016.193428</v>
       </c>
       <c r="F84" t="n">
-        <v>0.10142917278415</v>
+        <v>0.08859000112647185</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03897877950669564</v>
+        <v>0.04978939889708628</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1184158873.788615</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2458356104.384321</v>
+        <v>3505367896.966697</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1609668943747546</v>
+        <v>0.1425820535388247</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04623504747015425</v>
+        <v>0.0468591370761106</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>78</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1229178052.512486</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2128107948.417759</v>
+        <v>2414592934.655682</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1299677944364903</v>
+        <v>0.1615618293924175</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02288561802492238</v>
+        <v>0.02423043612232121</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1064054019.608167</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1378366688.267724</v>
+        <v>1111053660.478294</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1887720773337106</v>
+        <v>0.1261440465902527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04275333154762188</v>
+        <v>0.02907561984565614</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>689183445.4099308</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2409942991.192651</v>
+        <v>3715589862.096416</v>
       </c>
       <c r="F88" t="n">
-        <v>0.160576703295609</v>
+        <v>0.1390432529084515</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03301215155456943</v>
+        <v>0.03995960634905333</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>81</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1204971467.707243</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3374200753.13924</v>
+        <v>3013210897.931822</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1521946562529085</v>
+        <v>0.1574076383925218</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02775418926015913</v>
+        <v>0.03740318094315593</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>70</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1687100387.223763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1585537127.228611</v>
+        <v>2133104166.005281</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08999255962121656</v>
+        <v>0.1106244434439429</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04424455266584656</v>
+        <v>0.0396917127544725</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>792768557.9797783</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1349089858.494983</v>
+        <v>1661897425.076784</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1337915809770983</v>
+        <v>0.1531815689927534</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04547671428243474</v>
+        <v>0.05985816687200852</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>674544988.2604688</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2104080661.530059</v>
+        <v>2169201103.646473</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09048759275981996</v>
+        <v>0.1042502589163229</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04662240262444099</v>
+        <v>0.04389219412701687</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>52</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1052040284.780866</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3559584186.589435</v>
+        <v>5041398735.021712</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1236618889028981</v>
+        <v>0.08877137101497544</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0331555942463052</v>
+        <v>0.03337151430001088</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1779792122.349377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1800266783.301937</v>
+        <v>2431188588.323024</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1228668778780328</v>
+        <v>0.1236505649734803</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02756011128581008</v>
+        <v>0.03118434852557428</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>900133363.9926646</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2360369345.277699</v>
+        <v>2367004697.799051</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08660650379545597</v>
+        <v>0.1092363775741257</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04618431428029513</v>
+        <v>0.04674377306137591</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>50</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1180184718.876122</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1492041380.005402</v>
+        <v>1995135787.678878</v>
       </c>
       <c r="F96" t="n">
-        <v>0.117473015201308</v>
+        <v>0.1271482690144647</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04620674383693392</v>
+        <v>0.04718077782220709</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>746020731.1888292</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4067860841.660057</v>
+        <v>4762332729.570519</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1182355473515597</v>
+        <v>0.1324438242709639</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0238290234981764</v>
+        <v>0.0175946323892209</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2033930482.64721</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3927938671.419957</v>
+        <v>3787518950.82528</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1288347905548635</v>
+        <v>0.1145344457093789</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02185883962272718</v>
+        <v>0.02016345701475651</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>55</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1963969383.324972</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2564855548.964054</v>
+        <v>3270760457.639957</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09950672732196238</v>
+        <v>0.1196655312032845</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03368124257424401</v>
+        <v>0.03461190633897167</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>64</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1282427728.864914</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4524672698.719707</v>
+        <v>2968204569.640547</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1210682596636307</v>
+        <v>0.1562365381802983</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02475456263332108</v>
+        <v>0.02506947521798794</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>65</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2262336461.905807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3378844236.091816</v>
+        <v>2646435493.82138</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1826163442472828</v>
+        <v>0.2110064233588575</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05311336449930199</v>
+        <v>0.04774736092435732</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>84</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1689422257.124745</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_207.xlsx
+++ b/output/fit_clients/fit_round_207.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1757307552.697353</v>
+        <v>1639630485.461792</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0690066405436203</v>
+        <v>0.09546314270589602</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03746145238761688</v>
+        <v>0.04379438504768239</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2484978571.603293</v>
+        <v>2483768922.100949</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1531007305045</v>
+        <v>0.1558771466163191</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04267122896612333</v>
+        <v>0.03686669465657473</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3269358749.055371</v>
+        <v>4648989769.589601</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1342024169777098</v>
+        <v>0.1562965440739751</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03646043359183446</v>
+        <v>0.03033213064893506</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3976670026.798589</v>
+        <v>3145254067.670623</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08143321680194317</v>
+        <v>0.07411256785040744</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04180663209865681</v>
+        <v>0.05084001483464325</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2281707647.357626</v>
+        <v>2390931200.70868</v>
       </c>
       <c r="F6" t="n">
-        <v>0.127823821539457</v>
+        <v>0.1392734488516416</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04238698195011645</v>
+        <v>0.04218301471053845</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2218307498.200385</v>
+        <v>1958100849.341191</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0917945568658437</v>
+        <v>0.06643043134912595</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03167091974827774</v>
+        <v>0.0447518720445989</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2626106707.31608</v>
+        <v>3869226141.062318</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2136540109452976</v>
+        <v>0.2180756533708554</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03059154242980087</v>
+        <v>0.02698678041591997</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2141146300.492204</v>
+        <v>2080666042.345091</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1676845745395016</v>
+        <v>0.151166499618677</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02772994467605518</v>
+        <v>0.03299825234466122</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3877980102.419204</v>
+        <v>5628056004.556041</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1914403338260222</v>
+        <v>0.1637083295796386</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03943445047916358</v>
+        <v>0.03786126008697357</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3186927333.31896</v>
+        <v>2602485806.046217</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1655549620088298</v>
+        <v>0.1360789636321817</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03114545437932715</v>
+        <v>0.03918110873377938</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2240058264.240963</v>
+        <v>2225142688.462589</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1716571593228761</v>
+        <v>0.1921781126652593</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04012544278687107</v>
+        <v>0.04964914218968384</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4248778897.761485</v>
+        <v>4526250412.208245</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09054912224848845</v>
+        <v>0.06507445807234934</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02078680924146296</v>
+        <v>0.02874507135094519</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2351026775.539239</v>
+        <v>2703655086.844732</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1276423603688064</v>
+        <v>0.1857359160771525</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02824597706904855</v>
+        <v>0.03779277565834085</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1302429426.610224</v>
+        <v>1331649532.471623</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0922776505149243</v>
+        <v>0.06762167908486567</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04830566737313529</v>
+        <v>0.04244621755779233</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1942114877.111392</v>
+        <v>2185664242.491199</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0728523465441141</v>
+        <v>0.08299323868062505</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0453995342801269</v>
+        <v>0.03395505760849447</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4305984362.255387</v>
+        <v>3357509021.381305</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1331422274183029</v>
+        <v>0.1547352227326918</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04169725740042859</v>
+        <v>0.0341482058484675</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2502779834.170277</v>
+        <v>3549508205.457487</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1361420676119613</v>
+        <v>0.124256214597934</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02398103987076667</v>
+        <v>0.03213800854032873</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1111976930.969589</v>
+        <v>1305310889.686154</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1610996924880735</v>
+        <v>0.1232451426195053</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01896378132178819</v>
+        <v>0.02690194429167583</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1699199296.221526</v>
+        <v>2184467172.61165</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09912090200343766</v>
+        <v>0.1327598522462044</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02517704612485973</v>
+        <v>0.02944008668021569</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2428985667.979342</v>
+        <v>2452164571.082711</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09000912365733027</v>
+        <v>0.06341448352003805</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04479275837216759</v>
+        <v>0.04012311410263462</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3522864231.07091</v>
+        <v>3042246675.983474</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1291259130024099</v>
+        <v>0.1021108624817578</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0529650934431462</v>
+        <v>0.03957449051222813</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1506367588.25896</v>
+        <v>1125682043.892667</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1356420739246679</v>
+        <v>0.1204763881141713</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04329927822929428</v>
+        <v>0.04816882601907882</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2518169892.26209</v>
+        <v>3431199940.767849</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1094351015969482</v>
+        <v>0.1430680562542369</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02931760379777986</v>
+        <v>0.03165595043241003</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1215828302.843537</v>
+        <v>1437498968.344578</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1113484587688357</v>
+        <v>0.1123905956758813</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0300963014465831</v>
+        <v>0.02372590068048997</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>924972354.228719</v>
+        <v>1350451364.555486</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08290486402451767</v>
+        <v>0.07858784023413612</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03375610248817594</v>
+        <v>0.03031620742988947</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3757635372.11864</v>
+        <v>4513180864.185945</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1400524635809919</v>
+        <v>0.1150612790898561</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02320231507068315</v>
+        <v>0.01697614128311452</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3347324828.241416</v>
+        <v>3031717551.308494</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1272154456612981</v>
+        <v>0.09163003459435115</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04892721316468314</v>
+        <v>0.03425714786070485</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5536027847.623465</v>
+        <v>4657993139.397462</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1501374947277571</v>
+        <v>0.136038259154148</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04488120594472229</v>
+        <v>0.03395812285817393</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2354250911.001634</v>
+        <v>1856632347.701837</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1079221113830267</v>
+        <v>0.1303545070329425</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03289251382018968</v>
+        <v>0.03774419156560983</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1120135668.524671</v>
+        <v>1043523827.709847</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07979926053385185</v>
+        <v>0.0957196783771917</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04187538728074917</v>
+        <v>0.04574460871809133</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1497833321.760014</v>
+        <v>1584599921.715581</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1135965697459517</v>
+        <v>0.0972975140460535</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02686770536284274</v>
+        <v>0.02594173055651141</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2740638650.88984</v>
+        <v>2810292403.272055</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1937189289324323</v>
+        <v>0.1737897624199216</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04524908127552967</v>
+        <v>0.0611828908939995</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1085438197.839252</v>
+        <v>1366606107.362048</v>
       </c>
       <c r="F34" t="n">
-        <v>0.109654151288855</v>
+        <v>0.09468255139082339</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0245860238937072</v>
+        <v>0.02676083542263543</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>992486374.4945767</v>
+        <v>1117447536.040493</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09968664891406781</v>
+        <v>0.07435557554163358</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04089473846736823</v>
+        <v>0.03833080468817606</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2846151241.778699</v>
+        <v>2748070677.038805</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1262567168963199</v>
+        <v>0.1734937707620002</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02685699517809076</v>
+        <v>0.02863347662813928</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2258635240.316111</v>
+        <v>2068403797.031551</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09583332828266267</v>
+        <v>0.07806046271531762</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03216808878585031</v>
+        <v>0.03962324491655361</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1709680206.787643</v>
+        <v>1842268651.32573</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0936758251151484</v>
+        <v>0.08308828823161617</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03220603180309276</v>
+        <v>0.03298674691223238</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1900153843.857834</v>
+        <v>2108264328.868088</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1502853371209803</v>
+        <v>0.1602732596882542</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02846210205416706</v>
+        <v>0.03258400590199827</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1670169391.172344</v>
+        <v>1377426592.691964</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1028383128489117</v>
+        <v>0.1236524609475445</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05986443210013356</v>
+        <v>0.05354101655932068</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2202481916.954278</v>
+        <v>2688191893.296</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1074321059882734</v>
+        <v>0.1255412981091758</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03690263871028462</v>
+        <v>0.04464110947530053</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3807257749.284636</v>
+        <v>3554553093.588158</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08094644650585996</v>
+        <v>0.1062115267009777</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04564311887684823</v>
+        <v>0.03061915272670731</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3084144413.333929</v>
+        <v>2592730608.054024</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1468240623530882</v>
+        <v>0.1654161928894708</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01923747860011731</v>
+        <v>0.01936281621195956</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2236192830.731968</v>
+        <v>2157071410.305024</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07153395783414369</v>
+        <v>0.1000914679311042</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02332062664815297</v>
+        <v>0.02826511355814057</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2526830678.955487</v>
+        <v>2238142775.025798</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1784272007094593</v>
+        <v>0.1436745622417147</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04151265601455056</v>
+        <v>0.0399275862093648</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3626107954.948609</v>
+        <v>5074839962.664959</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1681004901974538</v>
+        <v>0.1106301172309312</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05166010629150408</v>
+        <v>0.03734248301662008</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5127486370.237512</v>
+        <v>4488264060.927842</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1625746264100622</v>
+        <v>0.1838336177533657</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0413757089937153</v>
+        <v>0.03733391204336993</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3128163836.208097</v>
+        <v>3394698188.911054</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08198797251619397</v>
+        <v>0.1031542752200962</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02747040700623259</v>
+        <v>0.03731914759738172</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1620458869.11309</v>
+        <v>1291907107.236604</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1500533075966037</v>
+        <v>0.1805666605020652</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03879449956548878</v>
+        <v>0.03742967431518045</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3198028979.864336</v>
+        <v>3983194215.041987</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1352717453727485</v>
+        <v>0.1147533010690349</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03920017944588868</v>
+        <v>0.03838873058443174</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>952318687.2796413</v>
+        <v>1222470464.363058</v>
       </c>
       <c r="F51" t="n">
-        <v>0.169932410114933</v>
+        <v>0.1860640026174469</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04825621347279671</v>
+        <v>0.0493133476114114</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3411604044.38402</v>
+        <v>4067346997.84615</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1271574675321736</v>
+        <v>0.1190490055211638</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04048896756394362</v>
+        <v>0.05878975829243386</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2854936776.367874</v>
+        <v>3780314641.895483</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1891748434688417</v>
+        <v>0.1870183950334771</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03460689669384863</v>
+        <v>0.02729114245268806</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3817651553.722199</v>
+        <v>3873549582.707184</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1180416172557769</v>
+        <v>0.1101562931766303</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04029703899418526</v>
+        <v>0.03955567990875526</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3814189060.235607</v>
+        <v>4037770083.684942</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1651398715609779</v>
+        <v>0.2113595424305496</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02683653617575779</v>
+        <v>0.02011057190677887</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1267240937.710641</v>
+        <v>1609362720.36032</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1147914639633879</v>
+        <v>0.1592550313755968</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05559957362525596</v>
+        <v>0.03821634126375185</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3865891401.961617</v>
+        <v>4503957447.861873</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1556733199055968</v>
+        <v>0.1436210700161655</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02151081451886842</v>
+        <v>0.02104508703972647</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1357493519.848864</v>
+        <v>1769630785.081812</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2010704161899961</v>
+        <v>0.1528967412233778</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03904488173064533</v>
+        <v>0.03125682490805135</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3394195506.711329</v>
+        <v>3682303727.815013</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08700062610960702</v>
+        <v>0.0948246499800629</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0345944093404108</v>
+        <v>0.04827126451729877</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3356803565.139046</v>
+        <v>2762918618.764905</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1616577254891398</v>
+        <v>0.138928050319221</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02463994927871021</v>
+        <v>0.03220091426724914</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3395583182.981718</v>
+        <v>3352621236.915469</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1707962006022845</v>
+        <v>0.1747628429191664</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03070638069619396</v>
+        <v>0.03286368674501672</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1390624850.411302</v>
+        <v>1318298385.142735</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1394488798933867</v>
+        <v>0.1686481809635841</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04124347114957656</v>
+        <v>0.03635977707506834</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3581247276.344328</v>
+        <v>4715451658.75142</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1076121713630467</v>
+        <v>0.1003514791109294</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03921706645639935</v>
+        <v>0.03583981731556244</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4173589875.546786</v>
+        <v>3561965945.549465</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1453376429846776</v>
+        <v>0.1620079306336954</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03316721470867436</v>
+        <v>0.03013454045101298</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4781903407.037107</v>
+        <v>5965990311.40962</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1739015794052765</v>
+        <v>0.1325584753945911</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02972631985198887</v>
+        <v>0.02910476881303432</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3827126805.235812</v>
+        <v>5150874169.448214</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1123742958319744</v>
+        <v>0.1013041962157223</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04112981189144024</v>
+        <v>0.04772766478597303</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3313237820.850371</v>
+        <v>2702226957.579926</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09679892247823406</v>
+        <v>0.1017204647611584</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03151928383415014</v>
+        <v>0.04101818798537154</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5368307485.21446</v>
+        <v>3919393770.499396</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1152323892457545</v>
+        <v>0.1228447791654797</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04747288070321728</v>
+        <v>0.03411234057280545</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1536297405.439585</v>
+        <v>2436185085.1648</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1588489077621502</v>
+        <v>0.164101545864032</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04500684712815295</v>
+        <v>0.05787261940300691</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3478637170.372271</v>
+        <v>3120661197.751423</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07802355174711076</v>
+        <v>0.06237719977835243</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03385630094865236</v>
+        <v>0.03169635080211382</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4992228265.615265</v>
+        <v>4183283394.825457</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1541212446744462</v>
+        <v>0.1860543403562644</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03128401439058652</v>
+        <v>0.03193781850941856</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1893570857.891701</v>
+        <v>2151896653.64124</v>
       </c>
       <c r="F72" t="n">
-        <v>0.105063255863455</v>
+        <v>0.1054980238332351</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04890957409974792</v>
+        <v>0.04069623702448545</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3414714558.339319</v>
+        <v>3316822636.540664</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09748269519723801</v>
+        <v>0.09838023910490545</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03213134137091519</v>
+        <v>0.0461643425343008</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3909144509.758125</v>
+        <v>3957179311.950803</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1196793439692612</v>
+        <v>0.161271691728614</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03052508149890822</v>
+        <v>0.02561606843655634</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2331083113.063061</v>
+        <v>1874789684.485151</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1113418655649617</v>
+        <v>0.1661409694444258</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02350856809683709</v>
+        <v>0.02745213297782225</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4376819304.052006</v>
+        <v>3357574578.635372</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1174000753742801</v>
+        <v>0.07652508118308003</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02175880820158506</v>
+        <v>0.02166498421546501</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1468818688.91068</v>
+        <v>2047522843.933028</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1460372679770594</v>
+        <v>0.153975491147246</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02459498872285661</v>
+        <v>0.02198151641165729</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4211472565.916863</v>
+        <v>4745651239.358523</v>
       </c>
       <c r="F78" t="n">
-        <v>0.126561978457679</v>
+        <v>0.1346972327052258</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03971890767868561</v>
+        <v>0.04816786575195146</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1627104623.451975</v>
+        <v>1241327726.212761</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1543703919107019</v>
+        <v>0.122535488868873</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0386721814497509</v>
+        <v>0.0370086262422637</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3588281501.529464</v>
+        <v>4459418459.343371</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08592945824954061</v>
+        <v>0.09482667638671377</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03474079639218674</v>
+        <v>0.03392443941502911</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3157438368.31349</v>
+        <v>5171664276.713523</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08864965517632209</v>
+        <v>0.09747999356926895</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02524884279285273</v>
+        <v>0.0236016412926773</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4581907692.129321</v>
+        <v>5148824315.955826</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1874879984697348</v>
+        <v>0.1895240396631681</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02417043007850801</v>
+        <v>0.0255011257877266</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2358486957.291949</v>
+        <v>1605722209.333862</v>
       </c>
       <c r="F83" t="n">
-        <v>0.113085484098907</v>
+        <v>0.1565856535031353</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03411107260164185</v>
+        <v>0.04346338347271313</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2156201016.193428</v>
+        <v>1627338148.065474</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08859000112647185</v>
+        <v>0.07949601423662336</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04978939889708628</v>
+        <v>0.04933330392787817</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3505367896.966697</v>
+        <v>3175055582.11402</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1425820535388247</v>
+        <v>0.1397568715128596</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0468591370761106</v>
+        <v>0.04902544245241579</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2414592934.655682</v>
+        <v>2673611717.169858</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1615618293924175</v>
+        <v>0.1085972573414409</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02423043612232121</v>
+        <v>0.02587809520071751</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1111053660.478294</v>
+        <v>1415521469.810372</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1261440465902527</v>
+        <v>0.1586202774331475</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02907561984565614</v>
+        <v>0.04393433833437931</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3715589862.096416</v>
+        <v>3603977504.804394</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1390432529084515</v>
+        <v>0.134240554988327</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03995960634905333</v>
+        <v>0.03629681706336379</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3013210897.931822</v>
+        <v>2529001102.687293</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1574076383925218</v>
+        <v>0.125691746182856</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03740318094315593</v>
+        <v>0.03177941001515648</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2133104166.005281</v>
+        <v>1957992190.777577</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1106244434439429</v>
+        <v>0.09541449758529669</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0396917127544725</v>
+        <v>0.05601015914661492</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1661897425.076784</v>
+        <v>1454222055.027788</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1531815689927534</v>
+        <v>0.1516655808249981</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05985816687200852</v>
+        <v>0.05014494625150658</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2169201103.646473</v>
+        <v>2502069683.52763</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1042502589163229</v>
+        <v>0.06646928778281419</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04389219412701687</v>
+        <v>0.03692627551226128</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5041398735.021712</v>
+        <v>3840903250.939267</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08877137101497544</v>
+        <v>0.1341734542817024</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03337151430001088</v>
+        <v>0.04311727631143729</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2431188588.323024</v>
+        <v>1587773924.665552</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1236505649734803</v>
+        <v>0.110723134974092</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03118434852557428</v>
+        <v>0.0291386322846383</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2367004697.799051</v>
+        <v>2256726404.161602</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1092363775741257</v>
+        <v>0.09716513413609744</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04674377306137591</v>
+        <v>0.04316449959270069</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1995135787.678878</v>
+        <v>2210378383.07573</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1271482690144647</v>
+        <v>0.13084018453363</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04718077782220709</v>
+        <v>0.03982302432424468</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4762332729.570519</v>
+        <v>4574766399.575589</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1324438242709639</v>
+        <v>0.1312581776393092</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0175946323892209</v>
+        <v>0.02583375080500531</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3787518950.82528</v>
+        <v>3296176215.975128</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1145344457093789</v>
+        <v>0.08073458785494736</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02016345701475651</v>
+        <v>0.02579775285839854</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3270760457.639957</v>
+        <v>2761918391.739501</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1196655312032845</v>
+        <v>0.1358636492971904</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03461190633897167</v>
+        <v>0.02735078166372932</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2968204569.640547</v>
+        <v>2972479575.915258</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1562365381802983</v>
+        <v>0.1248655886277607</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02506947521798794</v>
+        <v>0.0187521550912754</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2646435493.82138</v>
+        <v>3530138974.928659</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2110064233588575</v>
+        <v>0.1949771770726011</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04774736092435732</v>
+        <v>0.04567926859926257</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_207.xlsx
+++ b/output/fit_clients/fit_round_207.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1639630485.461792</v>
+        <v>1771311564.981832</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09546314270589602</v>
+        <v>0.09196021336736465</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04379438504768239</v>
+        <v>0.04527650662225172</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2483768922.100949</v>
+        <v>1955121394.467141</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1558771466163191</v>
+        <v>0.1816132105699141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03686669465657473</v>
+        <v>0.03520668558316985</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4648989769.589601</v>
+        <v>4068806565.16176</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1562965440739751</v>
+        <v>0.1457526819668869</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03033213064893506</v>
+        <v>0.03276791443609679</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>113</v>
+      </c>
+      <c r="J4" t="n">
+        <v>207</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3145254067.670623</v>
+        <v>2998054702.638377</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07411256785040744</v>
+        <v>0.1022751385871747</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05084001483464325</v>
+        <v>0.03940907380419499</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>86</v>
+      </c>
+      <c r="J5" t="n">
+        <v>206</v>
+      </c>
+      <c r="K5" t="n">
+        <v>92.90524283355242</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2390931200.70868</v>
+        <v>2184295246.601838</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1392734488516416</v>
+        <v>0.1379340301029163</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04218301471053845</v>
+        <v>0.03778398302196188</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1958100849.341191</v>
+        <v>2441479570.198276</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06643043134912595</v>
+        <v>0.06288708114320168</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0447518720445989</v>
+        <v>0.035820915435022</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3869226141.062318</v>
+        <v>3792483226.555364</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2180756533708554</v>
+        <v>0.1726057776140083</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02698678041591997</v>
+        <v>0.02681912041644412</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>58</v>
+      </c>
+      <c r="J8" t="n">
+        <v>206</v>
+      </c>
+      <c r="K8" t="n">
+        <v>118.1100342333557</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2080666042.345091</v>
+        <v>1629475582.620448</v>
       </c>
       <c r="F9" t="n">
-        <v>0.151166499618677</v>
+        <v>0.1447982810418584</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03299825234466122</v>
+        <v>0.02369855359166538</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5628056004.556041</v>
+        <v>3756181774.329611</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1637083295796386</v>
+        <v>0.1376439567008952</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03786126008697357</v>
+        <v>0.05197856567541084</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>189</v>
+      </c>
+      <c r="J10" t="n">
+        <v>207</v>
+      </c>
+      <c r="K10" t="n">
+        <v>127.5580320897715</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +822,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2602485806.046217</v>
+        <v>4120205712.783727</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1360789636321817</v>
+        <v>0.128458167465879</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03918110873377938</v>
+        <v>0.0301270582343789</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>86</v>
+      </c>
+      <c r="J11" t="n">
+        <v>207</v>
+      </c>
+      <c r="K11" t="n">
+        <v>126.6066231197257</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2225142688.462589</v>
+        <v>3067323216.231979</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1921781126652593</v>
+        <v>0.1259779089352507</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04964914218968384</v>
+        <v>0.04108192267196079</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4526250412.208245</v>
+        <v>4440251240.232586</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06507445807234934</v>
+        <v>0.07540316376325067</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02874507135094519</v>
+        <v>0.02123998784701507</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>103</v>
+      </c>
+      <c r="J13" t="n">
+        <v>206</v>
+      </c>
+      <c r="K13" t="n">
+        <v>118.0302263148878</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2703655086.844732</v>
+        <v>3012966076.144963</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1857359160771525</v>
+        <v>0.1337968389649926</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03779277565834085</v>
+        <v>0.03468300942267381</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>40</v>
+      </c>
+      <c r="J14" t="n">
+        <v>205</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1331649532.471623</v>
+        <v>1519138895.707061</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06762167908486567</v>
+        <v>0.0917194594264903</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04244621755779233</v>
+        <v>0.03580654618133163</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2185664242.491199</v>
+        <v>2717541693.809656</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08299323868062505</v>
+        <v>0.0966375961081147</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03395505760849447</v>
+        <v>0.04581269963209482</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3357509021.381305</v>
+        <v>4287713924.764284</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1547352227326918</v>
+        <v>0.1398640069982238</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0341482058484675</v>
+        <v>0.04899190228563173</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>99</v>
+      </c>
+      <c r="J17" t="n">
+        <v>207</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1071,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3549508205.457487</v>
+        <v>3616571848.593364</v>
       </c>
       <c r="F18" t="n">
-        <v>0.124256214597934</v>
+        <v>0.1775323192606744</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03213800854032873</v>
+        <v>0.02161424302289779</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>52</v>
+      </c>
+      <c r="J18" t="n">
+        <v>207</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1305310889.686154</v>
+        <v>1255787319.06628</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1232451426195053</v>
+        <v>0.1392341547074201</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02690194429167583</v>
+        <v>0.02085711489714471</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2184467172.61165</v>
+        <v>2627587375.143894</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1327598522462044</v>
+        <v>0.1106235788175867</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02944008668021569</v>
+        <v>0.02489030908404731</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2452164571.082711</v>
+        <v>2555920550.858321</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06341448352003805</v>
+        <v>0.06226415810926158</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04012311410263462</v>
+        <v>0.04295415344204646</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3042246675.983474</v>
+        <v>3380919947.750451</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1021108624817578</v>
+        <v>0.115350812574268</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03957449051222813</v>
+        <v>0.04002342499678563</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>53</v>
+      </c>
+      <c r="J22" t="n">
+        <v>205</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1125682043.892667</v>
+        <v>1010725856.222379</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1204763881141713</v>
+        <v>0.116703680213818</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04816882601907882</v>
+        <v>0.04311317134523562</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3431199940.767849</v>
+        <v>2916543501.950457</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1430680562542369</v>
+        <v>0.136036201046941</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03165595043241003</v>
+        <v>0.03063966689222912</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>64</v>
+      </c>
+      <c r="J24" t="n">
+        <v>203</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1437498968.344578</v>
+        <v>1133100696.154373</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1123905956758813</v>
+        <v>0.08826559333527688</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02372590068048997</v>
+        <v>0.02909071993665925</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1350451364.555486</v>
+        <v>921340094.4499216</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07858784023413612</v>
+        <v>0.1054815383836645</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03031620742988947</v>
+        <v>0.03445318989118857</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1386,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4513180864.185945</v>
+        <v>2901619339.758914</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1150612790898561</v>
+        <v>0.1287895942720032</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01697614128311452</v>
+        <v>0.02709821447842308</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>82</v>
+      </c>
+      <c r="J27" t="n">
+        <v>206</v>
+      </c>
+      <c r="K27" t="n">
+        <v>65.11576083049339</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3031717551.308494</v>
+        <v>2611418463.16561</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09163003459435115</v>
+        <v>0.1090660126943924</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03425714786070485</v>
+        <v>0.04142835827860376</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>203</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4657993139.397462</v>
+        <v>5134213663.507301</v>
       </c>
       <c r="F29" t="n">
-        <v>0.136038259154148</v>
+        <v>0.1300445408245366</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03395812285817393</v>
+        <v>0.0339171920267416</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>196</v>
+      </c>
+      <c r="J29" t="n">
+        <v>207</v>
+      </c>
+      <c r="K29" t="n">
+        <v>132.3009089718781</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1856632347.701837</v>
+        <v>1801628309.263957</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1303545070329425</v>
+        <v>0.1013562218683176</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03774419156560983</v>
+        <v>0.02663075403576665</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1043523827.709847</v>
+        <v>1264024388.770669</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0957196783771917</v>
+        <v>0.08111181756785618</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04574460871809133</v>
+        <v>0.03168251291752953</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1584599921.715581</v>
+        <v>1566065998.696873</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0972975140460535</v>
+        <v>0.09382527790286703</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02594173055651141</v>
+        <v>0.0383842522197445</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2810292403.272055</v>
+        <v>2435958294.624862</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1737897624199216</v>
+        <v>0.1810145228647398</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0611828908939995</v>
+        <v>0.0509067924172389</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1366606107.362048</v>
+        <v>1500388423.513509</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09468255139082339</v>
+        <v>0.08626821616304189</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02676083542263543</v>
+        <v>0.02439530072501834</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1117447536.040493</v>
+        <v>1138070246.943718</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07435557554163358</v>
+        <v>0.08133166745213373</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03833080468817606</v>
+        <v>0.03772757332984255</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2748070677.038805</v>
+        <v>2366830316.687622</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1734937707620002</v>
+        <v>0.1558256953030814</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02863347662813928</v>
+        <v>0.01785855240929947</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2068403797.031551</v>
+        <v>2683254105.441329</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07806046271531762</v>
+        <v>0.08225402843824048</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03962324491655361</v>
+        <v>0.03679269781252349</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1842268651.32573</v>
+        <v>2187956563.613364</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08308828823161617</v>
+        <v>0.08500155818785174</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03298674691223238</v>
+        <v>0.03241927927662473</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2108264328.868088</v>
+        <v>2174021530.234202</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1602732596882542</v>
+        <v>0.1686133130580831</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03258400590199827</v>
+        <v>0.02227421751643208</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1377426592.691964</v>
+        <v>1479319548.495499</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1236524609475445</v>
+        <v>0.1075007148799843</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05354101655932068</v>
+        <v>0.05723006652655183</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2688191893.296</v>
+        <v>2100454719.838209</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1255412981091758</v>
+        <v>0.1601647493578185</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04464110947530053</v>
+        <v>0.03764473801258447</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3554553093.588158</v>
+        <v>3988294531.127235</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1062115267009777</v>
+        <v>0.1022837208585802</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03061915272670731</v>
+        <v>0.03945619015062111</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>81</v>
+      </c>
+      <c r="J42" t="n">
+        <v>207</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2592730608.054024</v>
+        <v>2167968258.989641</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1654161928894708</v>
+        <v>0.1695488999623298</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01936281621195956</v>
+        <v>0.02163916065321213</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2157071410.305024</v>
+        <v>1590088069.671994</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1000914679311042</v>
+        <v>0.07968506987221248</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02826511355814057</v>
+        <v>0.03482871539330615</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2238142775.025798</v>
+        <v>2037769399.434121</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1436745622417147</v>
+        <v>0.1643893411563655</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0399275862093648</v>
+        <v>0.0454123183112592</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5074839962.664959</v>
+        <v>5219052093.001019</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1106301172309312</v>
+        <v>0.1127307480834568</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03734248301662008</v>
+        <v>0.05011339542554064</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>118</v>
+      </c>
+      <c r="J46" t="n">
+        <v>207</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4488264060.927842</v>
+        <v>3393888443.092499</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1838336177533657</v>
+        <v>0.1614931035164117</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03733391204336993</v>
+        <v>0.04313191931924491</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>93</v>
+      </c>
+      <c r="J47" t="n">
+        <v>206</v>
+      </c>
+      <c r="K47" t="n">
+        <v>85.45940148813423</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3394698188.911054</v>
+        <v>3069754665.439505</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1031542752200962</v>
+        <v>0.08228168237186695</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03731914759738172</v>
+        <v>0.03470694541218226</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>102</v>
+      </c>
+      <c r="J48" t="n">
+        <v>206</v>
+      </c>
+      <c r="K48" t="n">
+        <v>87.45521583613066</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1291907107.236604</v>
+        <v>1720332016.253275</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1805666605020652</v>
+        <v>0.1678229624958994</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03742967431518045</v>
+        <v>0.03619204530990096</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3983194215.041987</v>
+        <v>3590226593.794382</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1147533010690349</v>
+        <v>0.1173531652733816</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03838873058443174</v>
+        <v>0.03797931250960754</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>66</v>
+      </c>
+      <c r="J50" t="n">
+        <v>207</v>
+      </c>
+      <c r="K50" t="n">
+        <v>118.3000274992013</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1222470464.363058</v>
+        <v>1539275505.320405</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1860640026174469</v>
+        <v>0.1539069890668556</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0493133476114114</v>
+        <v>0.04929912596370145</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4067346997.84615</v>
+        <v>3611674271.777169</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1190490055211638</v>
+        <v>0.1162569814947624</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05878975829243386</v>
+        <v>0.0486599346018276</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>141</v>
+      </c>
+      <c r="J52" t="n">
+        <v>206</v>
+      </c>
+      <c r="K52" t="n">
+        <v>115.4216205821504</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3780314641.895483</v>
+        <v>2515505141.818283</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1870183950334771</v>
+        <v>0.1693628413302717</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02729114245268806</v>
+        <v>0.03411773756342765</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>205</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3873549582.707184</v>
+        <v>4933474310.920462</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1101562931766303</v>
+        <v>0.1675253714449575</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03955567990875526</v>
+        <v>0.05078986913368739</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>107</v>
+      </c>
+      <c r="J54" t="n">
+        <v>207</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4037770083.684942</v>
+        <v>3931632895.461498</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2113595424305496</v>
+        <v>0.1608578160135873</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02011057190677887</v>
+        <v>0.02514991909246199</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>92</v>
+      </c>
+      <c r="J55" t="n">
+        <v>207</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1609362720.36032</v>
+        <v>1622550904.395266</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1592550313755968</v>
+        <v>0.1555480929390354</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03821634126375185</v>
+        <v>0.05573028781993265</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4503957447.861873</v>
+        <v>4468160682.521538</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1436210700161655</v>
+        <v>0.1415176629793336</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02104508703972647</v>
+        <v>0.0236492957571494</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>81</v>
+      </c>
+      <c r="J57" t="n">
+        <v>207</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1769630785.081812</v>
+        <v>1321535076.563151</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1528967412233778</v>
+        <v>0.1726317211617689</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03125682490805135</v>
+        <v>0.03707330444776425</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3682303727.815013</v>
+        <v>4365927793.687591</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0948246499800629</v>
+        <v>0.08781604315642304</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04827126451729877</v>
+        <v>0.03257114291702825</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>100</v>
+      </c>
+      <c r="J59" t="n">
+        <v>206</v>
+      </c>
+      <c r="K59" t="n">
+        <v>108.3955641937374</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2762918618.764905</v>
+        <v>2381878579.315478</v>
       </c>
       <c r="F60" t="n">
-        <v>0.138928050319221</v>
+        <v>0.1948600706606631</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03220091426724914</v>
+        <v>0.02463992042962668</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>199</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3352621236.915469</v>
+        <v>2175192144.63143</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1747628429191664</v>
+        <v>0.1200513213550606</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03286368674501672</v>
+        <v>0.02203153862816473</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1318298385.142735</v>
+        <v>1405285851.379544</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1686481809635841</v>
+        <v>0.1347631489170292</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03635977707506834</v>
+        <v>0.03171721198827938</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2660,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4715451658.75142</v>
+        <v>3600879382.938291</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1003514791109294</v>
+        <v>0.07142904176850327</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03583981731556244</v>
+        <v>0.0475484635226798</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>101</v>
+      </c>
+      <c r="J63" t="n">
+        <v>206</v>
+      </c>
+      <c r="K63" t="n">
+        <v>109.338877125684</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3561965945.549465</v>
+        <v>4676530810.956151</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1620079306336954</v>
+        <v>0.1767625867748671</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03013454045101298</v>
+        <v>0.03388207394880884</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>102</v>
+      </c>
+      <c r="J64" t="n">
+        <v>206</v>
+      </c>
+      <c r="K64" t="n">
+        <v>111.0169139981105</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5965990311.40962</v>
+        <v>3735808058.91676</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1325584753945911</v>
+        <v>0.1524172402876451</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02910476881303432</v>
+        <v>0.0225028459427726</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>165</v>
+      </c>
+      <c r="J65" t="n">
+        <v>207</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5150874169.448214</v>
+        <v>4021260801.153063</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1013041962157223</v>
+        <v>0.1071772083077205</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04772766478597303</v>
+        <v>0.04352013583009227</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>102</v>
+      </c>
+      <c r="J66" t="n">
+        <v>206</v>
+      </c>
+      <c r="K66" t="n">
+        <v>106.9417634008357</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2702226957.579926</v>
+        <v>2436256901.164361</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1017204647611584</v>
+        <v>0.06784973373522372</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04101818798537154</v>
+        <v>0.04432357825357208</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2841,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3919393770.499396</v>
+        <v>4022805640.834479</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1228447791654797</v>
+        <v>0.1459485866164639</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03411234057280545</v>
+        <v>0.05168336570028848</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>104</v>
+      </c>
+      <c r="J68" t="n">
+        <v>207</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2436185085.1648</v>
+        <v>1990948539.214013</v>
       </c>
       <c r="F69" t="n">
-        <v>0.164101545864032</v>
+        <v>0.1689097503494942</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05787261940300691</v>
+        <v>0.04387765280319398</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2905,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3120661197.751423</v>
+        <v>3025681258.768629</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06237719977835243</v>
+        <v>0.07845092625844145</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03169635080211382</v>
+        <v>0.04351446407884568</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="n">
+        <v>75.23371572005816</v>
       </c>
     </row>
     <row r="71">
@@ -2418,17 +2948,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4183283394.825457</v>
+        <v>5590334954.436841</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1860543403562644</v>
+        <v>0.1782361742880772</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03193781850941856</v>
+        <v>0.02846228536769854</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>158</v>
+      </c>
+      <c r="J71" t="n">
+        <v>207</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2151896653.64124</v>
+        <v>1485998125.98816</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1054980238332351</v>
+        <v>0.07081364257013935</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04069623702448545</v>
+        <v>0.0356604974502551</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3316822636.540664</v>
+        <v>2879774432.878331</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09838023910490545</v>
+        <v>0.08958100253245574</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0461643425343008</v>
+        <v>0.04440480613522022</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3053,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3957179311.950803</v>
+        <v>3485570039.079143</v>
       </c>
       <c r="F74" t="n">
-        <v>0.161271691728614</v>
+        <v>0.1487625184171235</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02561606843655634</v>
+        <v>0.02485610173730934</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>61</v>
+      </c>
+      <c r="J74" t="n">
+        <v>206</v>
+      </c>
+      <c r="K74" t="n">
+        <v>114.2473995082376</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1874789684.485151</v>
+        <v>1936333585.828705</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1661409694444258</v>
+        <v>0.1431688012058477</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02745213297782225</v>
+        <v>0.03256484673803358</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3125,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3357574578.635372</v>
+        <v>4710262467.026214</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07652508118308003</v>
+        <v>0.1204830909175107</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02166498421546501</v>
+        <v>0.03175608429581937</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>95</v>
+      </c>
+      <c r="J76" t="n">
+        <v>206</v>
+      </c>
+      <c r="K76" t="n">
+        <v>102.8692985906046</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2047522843.933028</v>
+        <v>1845111209.150581</v>
       </c>
       <c r="F77" t="n">
-        <v>0.153975491147246</v>
+        <v>0.141686876636616</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02198151641165729</v>
+        <v>0.02016962590139234</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3197,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4745651239.358523</v>
+        <v>4707508882.463345</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1346972327052258</v>
+        <v>0.08307536388859096</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04816786575195146</v>
+        <v>0.05502439351249358</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>103</v>
+      </c>
+      <c r="J78" t="n">
+        <v>207</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1241327726.212761</v>
+        <v>1198097165.607994</v>
       </c>
       <c r="F79" t="n">
-        <v>0.122535488868873</v>
+        <v>0.1641634465006314</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0370086262422637</v>
+        <v>0.03445224727521169</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3267,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4459418459.343371</v>
+        <v>4369730926.844855</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09482667638671377</v>
+        <v>0.08279219097216695</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03392443941502911</v>
+        <v>0.02607553208748555</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>100</v>
+      </c>
+      <c r="J80" t="n">
+        <v>207</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5171664276.713523</v>
+        <v>3499810344.038175</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09747999356926895</v>
+        <v>0.08624085155008626</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0236016412926773</v>
+        <v>0.03085676420324872</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>95</v>
+      </c>
+      <c r="J81" t="n">
+        <v>205</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5148824315.955826</v>
+        <v>3920846893.987</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1895240396631681</v>
+        <v>0.147957327488059</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0255011257877266</v>
+        <v>0.02194320150815058</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>153</v>
+      </c>
+      <c r="J82" t="n">
+        <v>207</v>
+      </c>
+      <c r="K82" t="n">
+        <v>124.8543284544303</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1605722209.333862</v>
+        <v>1766410472.470859</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1565856535031353</v>
+        <v>0.1145361469168465</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04346338347271313</v>
+        <v>0.03763996114808849</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1627338148.065474</v>
+        <v>2291462427.038748</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07949601423662336</v>
+        <v>0.1208078483893928</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04933330392787817</v>
+        <v>0.05040363675860839</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3175055582.11402</v>
+        <v>2793694276.349</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1397568715128596</v>
+        <v>0.1776950638298127</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04902544245241579</v>
+        <v>0.04046100005070583</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2673611717.169858</v>
+        <v>2003001194.839471</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1085972573414409</v>
+        <v>0.1590606812771803</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02587809520071751</v>
+        <v>0.02410736947724939</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1415521469.810372</v>
+        <v>1223036239.801204</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1586202774331475</v>
+        <v>0.1843903307392803</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04393433833437931</v>
+        <v>0.03578455949672298</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3603977504.804394</v>
+        <v>3519565076.693905</v>
       </c>
       <c r="F88" t="n">
-        <v>0.134240554988327</v>
+        <v>0.1510851725947837</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03629681706336379</v>
+        <v>0.03521446007123069</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>29</v>
+      </c>
+      <c r="J88" t="n">
+        <v>204</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2529001102.687293</v>
+        <v>3413427227.982377</v>
       </c>
       <c r="F89" t="n">
-        <v>0.125691746182856</v>
+        <v>0.1496542215973759</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03177941001515648</v>
+        <v>0.03197143602848156</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1957992190.777577</v>
+        <v>1724796552.871115</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09541449758529669</v>
+        <v>0.08698977867059715</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05601015914661492</v>
+        <v>0.05315299288155631</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1454222055.027788</v>
+        <v>1976103452.845995</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1516655808249981</v>
+        <v>0.1362128984705047</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05014494625150658</v>
+        <v>0.04562595883291807</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2502069683.52763</v>
+        <v>3001097985.72162</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06646928778281419</v>
+        <v>0.07501871092778943</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03692627551226128</v>
+        <v>0.03551321476377057</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3840903250.939267</v>
+        <v>3993359593.669906</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1341734542817024</v>
+        <v>0.08946542403663801</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04311727631143729</v>
+        <v>0.04238316119261968</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>93</v>
+      </c>
+      <c r="J93" t="n">
+        <v>207</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1587773924.665552</v>
+        <v>1532219282.82571</v>
       </c>
       <c r="F94" t="n">
-        <v>0.110723134974092</v>
+        <v>0.1411875674554971</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0291386322846383</v>
+        <v>0.03664724790639196</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2256726404.161602</v>
+        <v>2733568591.601034</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09716513413609744</v>
+        <v>0.1121928602385069</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04316449959270069</v>
+        <v>0.03812246163232674</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2210378383.07573</v>
+        <v>2034682669.080219</v>
       </c>
       <c r="F96" t="n">
-        <v>0.13084018453363</v>
+        <v>0.09831129481902497</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03982302432424468</v>
+        <v>0.03540312083220758</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4574766399.575589</v>
+        <v>4778823576.825445</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1312581776393092</v>
+        <v>0.1344766078691078</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02583375080500531</v>
+        <v>0.02528265292211039</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>99</v>
+      </c>
+      <c r="J97" t="n">
+        <v>207</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3296176215.975128</v>
+        <v>2839453783.5944</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08073458785494736</v>
+        <v>0.1027233044769493</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02579775285839854</v>
+        <v>0.0305319948505595</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>52</v>
+      </c>
+      <c r="J98" t="n">
+        <v>206</v>
+      </c>
+      <c r="K98" t="n">
+        <v>64.98754372248943</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2761918391.739501</v>
+        <v>3046079892.315861</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1358636492971904</v>
+        <v>0.1156568401215672</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02735078166372932</v>
+        <v>0.03318634854763156</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2972479575.915258</v>
+        <v>3028611064.030444</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1248655886277607</v>
+        <v>0.1691336899236832</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0187521550912754</v>
+        <v>0.018202568470941</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>85</v>
+      </c>
+      <c r="J100" t="n">
+        <v>204</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3530138974.928659</v>
+        <v>2997442306.23466</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1949771770726011</v>
+        <v>0.1828434976310075</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04567926859926257</v>
+        <v>0.05770709844407879</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
